--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="146">
   <si>
     <t>TC ID</t>
   </si>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -504,9 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -538,10 +535,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -566,17 +563,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H44"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="TC ID" dataDxfId="8"/>
-    <tableColumn id="2" name="Title / Description" dataDxfId="7"/>
-    <tableColumn id="3" name="Steps" dataDxfId="6"/>
-    <tableColumn id="4" name="Expected Result" dataDxfId="5"/>
-    <tableColumn id="5" name="Actual Result" dataDxfId="4"/>
-    <tableColumn id="6" name="Test Data" dataDxfId="3"/>
-    <tableColumn id="7" name="Priority" dataDxfId="2"/>
-    <tableColumn id="8" name="Status" dataDxfId="1"/>
+    <tableColumn id="1" name="TC ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Title / Description" dataDxfId="6"/>
+    <tableColumn id="3" name="Steps" dataDxfId="5"/>
+    <tableColumn id="4" name="Expected Result" dataDxfId="4"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="6" name="Test Data" dataDxfId="2"/>
+    <tableColumn id="7" name="Priority" dataDxfId="1"/>
+    <tableColumn id="8" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -872,14 +869,14 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -894,7 +891,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -920,7 +917,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -946,7 +943,7 @@
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -972,7 +969,7 @@
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="3">
@@ -981,7 +978,7 @@
       <c r="E4" s="3">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -998,7 +995,7 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1024,24 +1021,20 @@
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1050,7 +1043,7 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1076,7 +1069,7 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1102,7 +1095,7 @@
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1128,7 +1121,7 @@
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1154,7 +1147,7 @@
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1180,7 +1173,7 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1199,14 +1192,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1232,24 +1225,20 @@
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1258,7 +1247,7 @@
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1284,7 +1273,7 @@
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1310,7 +1299,7 @@
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1329,14 +1318,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1362,7 +1351,7 @@
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1388,7 +1377,7 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1414,7 +1403,7 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1440,24 +1429,20 @@
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1466,7 +1451,7 @@
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1492,7 +1477,7 @@
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1518,7 +1503,7 @@
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1537,14 +1522,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1570,7 +1555,7 @@
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1596,7 +1581,7 @@
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1615,14 +1600,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1648,24 +1633,20 @@
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1674,7 +1655,7 @@
       <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1700,7 +1681,7 @@
       <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1726,7 +1707,7 @@
       <c r="B33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1745,14 +1726,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1778,7 +1759,7 @@
       <c r="B35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1804,7 +1785,7 @@
       <c r="B36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1823,14 +1804,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1856,24 +1837,20 @@
       <c r="B38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -1882,7 +1859,7 @@
       <c r="B39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1908,7 +1885,7 @@
       <c r="B40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -1934,7 +1911,7 @@
       <c r="B41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1953,14 +1930,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1986,7 +1963,7 @@
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2012,7 +1989,7 @@
       <c r="B44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="3" t="s">
